--- a/ProjectTestFolder/requirements/00_User_Requirements_Report.xlsx
+++ b/ProjectTestFolder/requirements/00_User_Requirements_Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rares\Desktop\25.7\ProjectTestFolder\requirements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NTT\05.07\ProjectTestFolder\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F74D215D-533E-49F9-8089-12B213965150}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBCE4AFC-70DC-49E5-BFC5-82A218F69907}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31215" yWindow="1785" windowWidth="21600" windowHeight="11385" xr2:uid="{4B26B5AD-99F7-4A2F-84C8-BDCF435F1C8E}"/>
+    <workbookView xWindow="31215" yWindow="1785" windowWidth="21600" windowHeight="11385" xr2:uid="{E7ACF029-E84B-4F79-8A3B-6CEF83FEFAFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="51">
   <si>
     <t>Requirement ID</t>
   </si>
@@ -41,6 +41,9 @@
     <t>Path</t>
   </si>
   <si>
+    <t>Version</t>
+  </si>
+  <si>
     <t>NTT.RADU.SW.Req201</t>
   </si>
   <si>
@@ -179,7 +182,7 @@
     <t>R.A.D.U. - Requirements And Design Utility</t>
   </si>
   <si>
-    <t>Thursday, 25 July 2019</t>
+    <t>Tuesday, 06 August 2019</t>
   </si>
 </sst>
 </file>
@@ -270,7 +273,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD2B31E0-8E19-41EE-A3C9-CF759406882E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD9BA360-290A-4CB7-9C27-034A5E6531C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -601,7 +604,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AFBB6FF-CF0B-44EB-97DB-DEAA36BBEC98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E88C2656-23EB-462B-B816-9D7E05335EEB}">
   <dimension ref="A2:D49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -610,12 +613,12 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -628,489 +631,492 @@
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="D5" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C40" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C41" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C42" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C47" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C48" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C49" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
